--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0DE7BD-426D-45D5-8730-0101C196DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C558A24-393F-4740-B654-C324CCDA1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="noeud 1" sheetId="2" r:id="rId1"/>
@@ -33,15 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="7">
   <si>
     <t>heure</t>
   </si>
   <si>
-    <t>lampe1</t>
+    <t>lampe 1</t>
   </si>
   <si>
-    <t>lampe2</t>
+    <t>lampe 2</t>
   </si>
   <si>
     <t>OFF</t>
@@ -49,12 +49,18 @@
   <si>
     <t>ON</t>
   </si>
+  <si>
+    <t>OFN</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +72,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -89,10 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,9 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81BF5F6-BAAC-4B05-9BE3-787CD1D7A556}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -446,7 +461,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -457,7 +472,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -468,7 +483,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -479,7 +494,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -490,7 +505,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6.9444444444444448E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -501,7 +516,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>7.6388888888888895E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -512,7 +527,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -523,7 +538,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -534,7 +549,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -545,7 +560,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -556,7 +571,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>0.1111111111111111</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -567,7 +582,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>0.11805555555555555</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -578,7 +593,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -589,7 +604,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>0.13194444444444445</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -600,7 +615,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>0.1388888888888889</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -611,7 +626,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -622,7 +637,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>0.15277777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -633,7 +648,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>0.15972222222222221</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -644,7 +659,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -655,7 +670,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>0.1736111111111111</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -666,7 +681,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>0.18055555555555555</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -677,7 +692,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>0.1875</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -688,7 +703,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>0.19444444444444445</v>
+        <v>0.15277777777777779</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -699,7 +714,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>0.2013888888888889</v>
+        <v>0.15972222222222221</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -710,7 +725,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -721,7 +736,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -732,7 +747,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -743,7 +758,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -754,7 +769,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>0.2361111111111111</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -765,7 +780,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>0.24305555555555555</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -776,7 +791,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -787,7 +802,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -798,7 +813,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>0.2638888888888889</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -809,7 +824,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -820,7 +835,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -831,7 +846,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -842,7 +857,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -853,7 +868,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>0.2986111111111111</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -864,7 +879,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>0.30555555555555558</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -875,7 +890,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>0.3125</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -886,7 +901,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>0.31944444444444442</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -897,7 +912,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>0.3263888888888889</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -908,7 +923,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -919,7 +934,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -930,7 +945,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>0.34722222222222221</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -941,7 +956,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>0.35416666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -952,7 +967,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -963,7 +978,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>0.36805555555555558</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -974,7 +989,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -985,7 +1000,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.34027777777777779</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -996,7 +1011,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1007,7 +1022,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1018,7 +1033,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>0.40277777777777779</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
@@ -1029,7 +1044,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>0.40972222222222221</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
@@ -1040,7 +1055,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -1051,7 +1066,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
@@ -1062,7 +1077,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -1073,7 +1088,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1084,7 +1099,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>0.44444444444444442</v>
+        <v>0.40277777777777779</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1095,7 +1110,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -1106,7 +1121,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -1117,7 +1132,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>0.46527777777777779</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -1128,7 +1143,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>0.47222222222222221</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -1139,7 +1154,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -1150,7 +1165,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -1161,7 +1176,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1172,7 +1187,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1183,7 +1198,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.46527777777777779</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1194,7 +1209,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>0.51388888888888884</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -1205,7 +1220,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -1216,7 +1231,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -1227,7 +1242,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>0.53472222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -1238,7 +1253,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -1249,7 +1264,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>0.54861111111111116</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -1260,7 +1275,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -1271,7 +1286,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -1282,7 +1297,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>0.56944444444444442</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -1293,7 +1308,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>0.57638888888888884</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -1304,7 +1319,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -1315,7 +1330,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>0.59027777777777779</v>
+        <v>0.54861111111111116</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -1326,7 +1341,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>0.59722222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -1337,7 +1352,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>0.60416666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -1348,7 +1363,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>0.61111111111111116</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -1359,7 +1374,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -1370,7 +1385,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -1381,7 +1396,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>0.63194444444444442</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -1392,7 +1407,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>0.63888888888888884</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -1403,7 +1418,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -1414,7 +1429,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -1425,7 +1440,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>0.65972222222222221</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -1436,7 +1451,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -1447,7 +1462,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -1458,7 +1473,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -1469,7 +1484,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -1480,7 +1495,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>0.69444444444444442</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -1491,7 +1506,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -1502,7 +1517,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -1513,7 +1528,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>0.71527777777777779</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
@@ -1524,7 +1539,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>0.72222222222222221</v>
+        <v>0.6875</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
@@ -1535,7 +1550,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -1546,7 +1561,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>0.73611111111111116</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -1557,7 +1572,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
@@ -1568,7 +1583,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>0.75</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -1579,7 +1594,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>0.75694444444444442</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
@@ -1590,7 +1605,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>0.76388888888888884</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
@@ -1601,7 +1616,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
@@ -1612,7 +1627,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>0.77777777777777779</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -1623,7 +1638,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>0.78472222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -1634,7 +1649,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -1645,7 +1660,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>0.79861111111111116</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -1656,7 +1671,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>0.80555555555555558</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -1667,7 +1682,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>0.8125</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -1678,7 +1693,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -1689,7 +1704,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -1700,7 +1715,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -1711,7 +1726,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>0.84027777777777779</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -1722,7 +1737,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>0.84722222222222221</v>
+        <v>0.8125</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -1733,7 +1748,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -1744,7 +1759,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>0.86111111111111116</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -1755,7 +1770,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -1766,7 +1781,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>0.875</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -1777,7 +1792,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>0.88194444444444442</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -1788,7 +1803,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -1799,7 +1814,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>0.89583333333333337</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -1810,7 +1825,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>0.90277777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -1821,7 +1836,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>0.90972222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -1832,7 +1847,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.88194444444444442</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -1843,7 +1858,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -1854,7 +1869,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -1865,7 +1880,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>0.9375</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -1876,7 +1891,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.90972222222222221</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -1887,7 +1902,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>0.95138888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -1898,7 +1913,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
@@ -1909,7 +1924,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>0.96527777777777779</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -1920,7 +1935,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>0.97222222222222221</v>
+        <v>0.9375</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -1931,7 +1946,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>0.97916666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -1942,7 +1957,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>0.98611111111111116</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -1953,7 +1968,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>0.99305555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -1964,7 +1979,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>0</v>
+        <v>0.96527777777777779</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -1975,7 +1990,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -1986,7 +2001,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -1997,7 +2012,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -2008,7 +2023,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>2.7777777777777776E-2</v>
+        <v>0.99305555555555558</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -2017,16 +2032,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="147" spans="1:4" ht="16.5">
+      <c r="D147" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2037,7 +2047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E86CD1F-74BD-4228-9A8C-A88D086C3DA4}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2054,21 +2066,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2076,10 +2088,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -2087,7 +2099,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2098,7 +2110,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6.9444444444444448E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2109,7 +2121,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>7.6388888888888895E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2120,7 +2132,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2131,7 +2143,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2142,7 +2154,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2153,7 +2165,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2164,7 +2176,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>0.1111111111111111</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2175,73 +2187,73 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>0.11805555555555555</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>0.13194444444444445</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>0.1388888888888889</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>0.15277777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>0.15972222222222221</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2252,183 +2264,183 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>0.1736111111111111</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>0.18055555555555555</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>0.1875</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>0.19444444444444445</v>
+        <v>0.15277777777777779</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>0.2013888888888889</v>
+        <v>0.15972222222222221</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>0.2361111111111111</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>0.24305555555555555</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>0.2638888888888889</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2439,51 +2451,51 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>0.2986111111111111</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>0.30555555555555558</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>0.3125</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -2494,7 +2506,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>0.31944444444444442</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -2505,40 +2517,40 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>0.3263888888888889</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>0.34722222222222221</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2549,29 +2561,29 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>0.35416666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>0.36805555555555558</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2582,18 +2594,18 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.34027777777777779</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -2604,51 +2616,51 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>0.40277777777777779</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>0.40972222222222221</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -2659,18 +2671,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -2681,18 +2693,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>0.44444444444444442</v>
+        <v>0.40277777777777779</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2703,18 +2715,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -2725,7 +2737,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>0.46527777777777779</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2736,7 +2748,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>0.47222222222222221</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2747,7 +2759,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2758,7 +2770,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2769,7 +2781,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -2780,18 +2792,18 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.46527777777777779</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -2802,18 +2814,18 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>0.51388888888888884</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -2824,7 +2836,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -2835,18 +2847,18 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>0.53472222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -2857,7 +2869,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>0.54861111111111116</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -2868,29 +2880,29 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>0.56944444444444442</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2901,18 +2913,18 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>0.57638888888888884</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -2923,7 +2935,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>0.59027777777777779</v>
+        <v>0.54861111111111116</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2934,7 +2946,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>0.59722222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -2945,18 +2957,18 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>0.60416666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>0.61111111111111116</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -2967,18 +2979,18 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -2989,18 +3001,18 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>0.63194444444444442</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>0.63888888888888884</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -3011,7 +3023,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3022,18 +3034,18 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>0.65972222222222221</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3044,18 +3056,18 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3066,7 +3078,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3077,7 +3089,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -3088,18 +3100,18 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>0.69444444444444442</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -3110,18 +3122,18 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>0.71527777777777779</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
@@ -3132,18 +3144,18 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>0.72222222222222221</v>
+        <v>0.6875</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -3154,18 +3166,18 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>0.73611111111111116</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
@@ -3176,18 +3188,18 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>0.75</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>0.75694444444444442</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
@@ -3198,18 +3210,18 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>0.76388888888888884</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
@@ -3220,18 +3232,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>0.77777777777777779</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>0.78472222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -3242,7 +3254,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -3253,18 +3265,18 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>0.79861111111111116</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>0.80555555555555558</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -3275,95 +3287,95 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>0.8125</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>0.84027777777777779</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>0.84722222222222221</v>
+        <v>0.8125</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>0.86111111111111116</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -3374,194 +3386,194 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>0.875</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>0.88194444444444442</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>0.89583333333333337</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>0.90277777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>0.90972222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.88194444444444442</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>0.9375</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.90972222222222221</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>0.95138888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>0.96527777777777779</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>0.97222222222222221</v>
+        <v>0.9375</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>0.97916666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>0.98611111111111116</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>0.99305555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -3572,18 +3584,18 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>0</v>
+        <v>0.96527777777777779</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -3594,18 +3606,18 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -3616,7 +3628,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>2.7777777777777776E-2</v>
+        <v>0.99305555555555558</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -3625,16 +3637,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3645,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA978BD4-3E45-4397-9CFA-D0D90D0CFAC5}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3664,21 +3668,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4.8611111111111112E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -3686,7 +3690,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5.5555555555555552E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3697,10 +3701,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -3708,10 +3712,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6.9444444444444448E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3719,10 +3723,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>7.6388888888888895E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3730,7 +3734,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3741,10 +3745,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3752,7 +3756,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -3763,10 +3767,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -3774,7 +3778,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>0.1111111111111111</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3785,10 +3789,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>0.11805555555555555</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -3796,7 +3800,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -3807,7 +3811,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>0.13194444444444445</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -3818,10 +3822,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>0.1388888888888889</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3829,7 +3833,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -3840,10 +3844,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>0.15277777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -3851,7 +3855,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>0.15972222222222221</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -3862,7 +3866,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -3873,10 +3877,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>0.1736111111111111</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -3884,7 +3888,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>0.18055555555555555</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -3895,10 +3899,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>0.1875</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -3906,7 +3910,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>0.19444444444444445</v>
+        <v>0.15277777777777779</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -3917,10 +3921,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>0.2013888888888889</v>
+        <v>0.15972222222222221</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3928,10 +3932,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3939,10 +3943,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3950,7 +3954,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -3961,10 +3965,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -3972,7 +3976,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>0.2361111111111111</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -3983,10 +3987,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>0.24305555555555555</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -3994,7 +3998,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -4005,10 +4009,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -4016,7 +4020,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>0.2638888888888889</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -4027,10 +4031,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -4038,7 +4042,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -4049,10 +4053,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -4060,7 +4064,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -4071,10 +4075,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>0.2986111111111111</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -4082,7 +4086,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>0.30555555555555558</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -4093,10 +4097,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>0.3125</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -4104,7 +4108,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>0.31944444444444442</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -4115,10 +4119,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>0.3263888888888889</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -4126,10 +4130,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -4137,10 +4141,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -4148,10 +4152,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>0.34722222222222221</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -4159,7 +4163,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>0.35416666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -4170,10 +4174,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -4181,7 +4185,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>0.36805555555555558</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -4192,10 +4196,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -4203,10 +4207,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.34027777777777779</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -4214,10 +4218,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -4225,7 +4229,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -4236,10 +4240,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>0.40277777777777779</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -4247,10 +4251,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>0.40972222222222221</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -4258,10 +4262,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -4269,10 +4273,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -4280,10 +4284,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -4291,7 +4295,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -4302,7 +4306,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>0.44444444444444442</v>
+        <v>0.40277777777777779</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -4313,10 +4317,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -4324,10 +4328,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -4335,10 +4339,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>0.46527777777777779</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -4346,10 +4350,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>0.47222222222222221</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -4357,10 +4361,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -4368,10 +4372,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -4379,10 +4383,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -4390,10 +4394,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -4401,10 +4405,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.46527777777777779</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -4412,10 +4416,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>0.51388888888888884</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -4423,10 +4427,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -4434,10 +4438,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -4445,10 +4449,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>0.53472222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -4456,10 +4460,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -4467,10 +4471,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>0.54861111111111116</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -4478,7 +4482,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -4489,10 +4493,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -4500,10 +4504,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>0.56944444444444442</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -4511,10 +4515,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>0.57638888888888884</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -4522,10 +4526,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -4533,10 +4537,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>0.59027777777777779</v>
+        <v>0.54861111111111116</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -4544,10 +4548,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>0.59722222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -4555,7 +4559,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>0.60416666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -4566,10 +4570,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>0.61111111111111116</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -4577,10 +4581,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -4588,7 +4592,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -4599,10 +4603,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>0.63194444444444442</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -4610,10 +4614,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>0.63888888888888884</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -4621,7 +4625,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -4632,10 +4636,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -4643,10 +4647,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>0.65972222222222221</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -4654,10 +4658,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -4665,10 +4669,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -4676,10 +4680,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -4687,10 +4691,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -4698,10 +4702,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>0.69444444444444442</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -4709,10 +4713,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -4720,10 +4724,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -4731,10 +4735,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>0.71527777777777779</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -4742,10 +4746,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>0.72222222222222221</v>
+        <v>0.6875</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -4753,10 +4757,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -4764,7 +4768,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>0.73611111111111116</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -4775,10 +4779,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -4786,10 +4790,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>0.75</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -4797,10 +4801,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>0.75694444444444442</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -4808,10 +4812,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>0.76388888888888884</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -4819,10 +4823,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -4830,10 +4834,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>0.77777777777777779</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -4841,10 +4845,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>0.78472222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -4852,7 +4856,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -4863,10 +4867,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>0.79861111111111116</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -4874,7 +4878,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>0.80555555555555558</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -4885,10 +4889,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>0.8125</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -4896,10 +4900,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -4907,10 +4911,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -4918,7 +4922,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -4929,10 +4933,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>0.84027777777777779</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -4940,7 +4944,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>0.84722222222222221</v>
+        <v>0.8125</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -4951,10 +4955,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -4962,10 +4966,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>0.86111111111111116</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -4973,10 +4977,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -4984,10 +4988,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>0.875</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -4995,10 +4999,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>0.88194444444444442</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -5006,10 +5010,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>0.88888888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -5017,10 +5021,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>0.89583333333333337</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -5028,10 +5032,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>0.90277777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -5039,10 +5043,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>0.90972222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -5050,10 +5054,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.88194444444444442</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -5061,10 +5065,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -5072,10 +5076,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -5083,10 +5087,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>0.9375</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -5094,10 +5098,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.90972222222222221</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -5105,10 +5109,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>0.95138888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -5116,10 +5120,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -5127,7 +5131,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>0.96527777777777779</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -5138,7 +5142,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>0.97222222222222221</v>
+        <v>0.9375</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -5149,7 +5153,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>0.97916666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -5160,7 +5164,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>0.98611111111111116</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -5171,7 +5175,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>0.99305555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -5182,7 +5186,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>0</v>
+        <v>0.96527777777777779</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -5193,7 +5197,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -5204,7 +5208,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5215,7 +5219,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5226,7 +5230,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>2.7777777777777776E-2</v>
+        <v>0.99305555555555558</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -5235,16 +5239,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
